--- a/src/components/Dashboard/mod_alternativo/assets/documents/autorregistro_misHabilidades.xlsx
+++ b/src/components/Dashboard/mod_alternativo/assets/documents/autorregistro_misHabilidades.xlsx
@@ -1,62 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Alejandra\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVID\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F94B552-AAB4-44FF-80BB-310205B88C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52634AB7-6E61-4AA1-85EA-3E6CB1E0A2BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
-    <t>SENTIMIENTOS QUE GENERA SU POSIBLE REALIZACIÓN</t>
+    <t>Actividad que se pretende procrastinar</t>
   </si>
   <si>
-    <t>COMPORTAMIENTO (DISTRACCIONES QUE GENERALMENTE UTILIZO PARA EVADIRLA)</t>
+    <t>Sentimientos que genera su (posible) realización</t>
   </si>
   <si>
-    <t>FORMA DE AFRONTARLO</t>
+    <t>Pensamientos en torno su (posible) realización</t>
   </si>
   <si>
-    <t>PENSAMIENTOS EN TORNO A SU (POSIBLE) REALIZACIÓN</t>
+    <t>Forma de Afrontarlo</t>
   </si>
   <si>
-    <t>ACTIVIDAD QUE SE PRETENDE PROCRASTINAR</t>
+    <t>Comportamiento (distracciones que generalmente utilizo para evadirla)</t>
+  </si>
+  <si>
+    <t>Escribe aquí y en las siguientes filas todo lo que quieras. Esto es solo para ti</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AUTORREGISTRO – MIS HABILIDADES
+(Elaboración propia basada en Beck, 1995/2000)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+En cada casilla está indicado lo que debes colocar. Te recomendamos hacer seguimiento de este por lo menos durante una semana o también anotar aquellas situaciones anteriores (pasadas) en cada una de las casillas. Para esto puedes agregar la fecha para mayor precisión. Al completar el autoregistro notarás como algunos sentimientos, pensamientos y comportamientos (conductas de distracción) son repetitivos, del mismo modo, con la practica (y experimentación de alternativas) vamos siendo más asertivos en la forma de afrontarlos los mismos.
+Es importante que identifiquemos cuales son las actividades que más tendemos a aplazar y los sentimientos asociados a las mismas para así lograr afrontarlas de una mejor manera. Para esto te ayudarás con el siguiente cuadro de autoregistro, el cual también te orientará con un ejemplo (basado en hechos reales)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Referencia:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Beck, J. (2000). </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Terapia Cognitiva: Conceptos Básicos y Profundización</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Trad. A. Ruiz).  Editorial Gedisa. (Libro original publicado en 1995).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,20 +158,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,18 +207,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFD966"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -108,20 +220,170 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -141,18 +403,50 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8589C7FB-A230-4DA8-9296-974DCF0A49D6}" name="Tabla1" displayName="Tabla1" ref="A2:E9" totalsRowShown="0">
-  <autoFilter ref="A2:E9" xr:uid="{8589C7FB-A230-4DA8-9296-974DCF0A49D6}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{45A3453A-0270-499E-8C55-4A339F9A64EF}" name="ACTIVIDAD QUE SE PRETENDE PROCRASTINAR"/>
-    <tableColumn id="2" xr3:uid="{2AF9BB40-79A3-432C-B59F-C70E9DD6D534}" name="SENTIMIENTOS QUE GENERA SU POSIBLE REALIZACIÓN"/>
-    <tableColumn id="3" xr3:uid="{E7CB4E66-81C3-431E-B3B9-46A2F0823CF0}" name="PENSAMIENTOS EN TORNO A SU (POSIBLE) REALIZACIÓN"/>
-    <tableColumn id="4" xr3:uid="{8D122228-F100-4243-B81F-30361BF41A6F}" name="COMPORTAMIENTO (DISTRACCIONES QUE GENERALMENTE UTILIZO PARA EVADIRLA)"/>
-    <tableColumn id="5" xr3:uid="{C1430962-48B7-4900-9C4D-33C8CBD03E3D}" name="FORMA DE AFRONTARLO"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="92813"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13607" y="27214"/>
+          <a:ext cx="16260536" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -172,7 +466,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -184,7 +478,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -231,23 +525,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -283,23 +560,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,58 +711,851 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC20A6AB-D00E-4D7B-A62F-788153D0D6A0}">
-  <dimension ref="A2:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="E18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
+    </row>
+    <row r="19" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:5" ht="52" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:F6"/>
+    <mergeCell ref="A7:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D18:D19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>